--- a/gender-equality-index-2005-2010-2012-2015.xlsx
+++ b/gender-equality-index-2005-2010-2012-2015.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,6 +14,8 @@
     <sheet name="2012" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="2015" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="CountryCodes" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Violence" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Awareness" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles" vbProcedure="false">'2005'!$A:$B</definedName>
@@ -23,6 +25,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Metadata!$A$1:$I$84</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">Metadata!$1:$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">Metadata!$1:$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0" vbProcedure="false">Metadata!$1:$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="433">
   <si>
     <t xml:space="preserve">Domain</t>
   </si>
@@ -1394,6 +1397,24 @@
   <si>
     <t xml:space="preserve">United Kingdom</t>
   </si>
+  <si>
+    <t xml:space="preserve">Percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don’t Know</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fairly common</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not at all common</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not very common</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very common</t>
+  </si>
 </sst>
 </file>
 
@@ -1706,7 +1727,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1736,157 +1757,153 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="5" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="3" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="21" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="5" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="21" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="3" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="5" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="3" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="5" xfId="21" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="5" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="5" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="3" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="5" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="3" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="5" xfId="21" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="5" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="5" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="3" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="5" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2086,19 +2103,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2106,16 +2123,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 11 2" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Normal 15 3" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -4064,7 +4084,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="1" style="37" width="15.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="38" width="3.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="122" min="24" style="37" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="123" style="37" width="6.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="123" style="37" width="6.7"/>
   </cols>
   <sheetData>
     <row r="1" s="54" customFormat="true" ht="137.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15651,7 +15671,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="1" style="37" width="15.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="38" width="3.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="122" min="24" style="37" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="123" style="37" width="6.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="123" style="37" width="6.7"/>
   </cols>
   <sheetData>
     <row r="1" s="54" customFormat="true" ht="137.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -27122,7 +27142,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="1" style="37" width="15.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="38" width="3.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="122" min="24" style="37" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="123" style="37" width="6.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="123" style="37" width="6.7"/>
   </cols>
   <sheetData>
     <row r="1" s="54" customFormat="true" ht="137.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38588,7 +38608,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="1" style="37" width="15.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="38" width="3.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="122" min="24" style="37" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="123" style="37" width="6.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="123" style="37" width="6.7"/>
   </cols>
   <sheetData>
     <row r="1" s="54" customFormat="true" ht="137.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -50066,7 +50086,7 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -50317,4 +50337,904 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B30"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.14"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F30"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="9.14"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="91" t="s">
+        <v>428</v>
+      </c>
+      <c r="C1" s="91" t="s">
+        <v>429</v>
+      </c>
+      <c r="D1" s="91" t="s">
+        <v>430</v>
+      </c>
+      <c r="E1" s="91" t="s">
+        <v>431</v>
+      </c>
+      <c r="F1" s="91" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/gender-equality-index-2005-2010-2012-2015.xlsx
+++ b/gender-equality-index-2005-2010-2012-2015.xlsx
@@ -50347,7 +50347,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -50614,7 +50614,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
